--- a/results/nli-cv/combined/train/train_cv_results-SpotifyCares-inbound.xlsx
+++ b/results/nli-cv/combined/train/train_cv_results-SpotifyCares-inbound.xlsx
@@ -1080,19 +1080,19 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="E2">
-        <v>0.801238626339674</v>
+        <v>0.8028172173760877</v>
       </c>
       <c r="F2">
         <v>0.9523809523809523</v>
       </c>
       <c r="G2">
-        <v>0.8565034965034966</v>
+        <v>0.873006993006993</v>
       </c>
       <c r="H2">
-        <v>0.8181818181818181</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="I2">
         <v>25</v>
@@ -1109,7 +1109,7 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>0.985</v>
+        <v>0.9869999999999999</v>
       </c>
       <c r="E3">
         <v>0.7092557133909462</v>
@@ -1196,19 +1196,19 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>0.998</v>
+        <v>0.9970000000000001</v>
       </c>
       <c r="E6">
-        <v>0.7092557133909462</v>
+        <v>0.6784257348102164</v>
       </c>
       <c r="F6">
-        <v>0.9285714285714286</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="G6">
-        <v>0.8425174825174825</v>
+        <v>0.8650349650349651</v>
       </c>
       <c r="H6">
-        <v>0.7499999999999999</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="I6">
         <v>25</v>
@@ -1228,16 +1228,16 @@
         <v>0.984</v>
       </c>
       <c r="E7">
-        <v>0.7758994999483078</v>
+        <v>0.7522460540768066</v>
       </c>
       <c r="F7">
-        <v>0.9464285714285714</v>
+        <v>0.9404761904761905</v>
       </c>
       <c r="G7">
-        <v>0.853006993006993</v>
+        <v>0.8495104895104895</v>
       </c>
       <c r="H7">
-        <v>0.7999999999999999</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="I7">
         <v>25</v>
@@ -1254,19 +1254,19 @@
         <v>24</v>
       </c>
       <c r="D8">
-        <v>0.9960000000000001</v>
+        <v>0.9970000000000001</v>
       </c>
       <c r="E8">
-        <v>0.6956222362062372</v>
+        <v>0.7189787465447567</v>
       </c>
       <c r="F8">
-        <v>0.9285714285714286</v>
+        <v>0.9345238095238095</v>
       </c>
       <c r="G8">
-        <v>0.8095104895104895</v>
+        <v>0.7965034965034965</v>
       </c>
       <c r="H8">
-        <v>0.7272727272727272</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="I8">
         <v>25</v>
@@ -1312,19 +1312,19 @@
         <v>26</v>
       </c>
       <c r="D10">
-        <v>0.994</v>
+        <v>0.986</v>
       </c>
       <c r="E10">
-        <v>0.7016748907775254</v>
+        <v>0.7065242257912876</v>
       </c>
       <c r="F10">
-        <v>0.9285714285714286</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G10">
-        <v>0.826013986013986</v>
+        <v>0.885034965034965</v>
       </c>
       <c r="H10">
-        <v>0.7391304347826089</v>
+        <v>0.75</v>
       </c>
       <c r="I10">
         <v>25</v>
@@ -1370,7 +1370,7 @@
         <v>28</v>
       </c>
       <c r="D12">
-        <v>0.986</v>
+        <v>0.9869999999999999</v>
       </c>
       <c r="E12">
         <v>0.7484304312729556</v>
@@ -1402,16 +1402,16 @@
         <v>0.9970000000000001</v>
       </c>
       <c r="E13">
-        <v>0.6634090532765995</v>
+        <v>0.6784257348102164</v>
       </c>
       <c r="F13">
-        <v>0.9047619047619048</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="G13">
-        <v>0.8615384615384616</v>
+        <v>0.8650349650349651</v>
       </c>
       <c r="H13">
-        <v>0.7142857142857142</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="I13">
         <v>25</v>
@@ -1428,7 +1428,7 @@
         <v>30</v>
       </c>
       <c r="D14">
-        <v>0.994</v>
+        <v>0.9949999999999999</v>
       </c>
       <c r="E14">
         <v>0.7470223516823711</v>
@@ -1486,19 +1486,19 @@
         <v>32</v>
       </c>
       <c r="D16">
-        <v>0.95</v>
+        <v>0.9399999999999998</v>
       </c>
       <c r="E16">
-        <v>0.7342028924549272</v>
+        <v>0.7468155759112041</v>
       </c>
       <c r="F16">
         <v>0.9226190476190477</v>
       </c>
       <c r="G16">
-        <v>0.9050349650349651</v>
+        <v>0.9215384615384616</v>
       </c>
       <c r="H16">
-        <v>0.7719298245614036</v>
+        <v>0.7796610169491526</v>
       </c>
       <c r="I16">
         <v>25</v>
@@ -1518,16 +1518,16 @@
         <v>0.9879999999999999</v>
       </c>
       <c r="E17">
-        <v>0.6347569518799037</v>
+        <v>0.6498673638088883</v>
       </c>
       <c r="F17">
-        <v>0.8988095238095238</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="G17">
-        <v>0.8415384615384616</v>
+        <v>0.8450349650349651</v>
       </c>
       <c r="H17">
-        <v>0.6909090909090909</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="I17">
         <v>25</v>
@@ -1544,19 +1544,19 @@
         <v>34</v>
       </c>
       <c r="D18">
-        <v>0.9970000000000001</v>
+        <v>0.9949999999999999</v>
       </c>
       <c r="E18">
-        <v>0.671048951048951</v>
+        <v>0.6915207566933903</v>
       </c>
       <c r="F18">
-        <v>0.9166666666666666</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="G18">
-        <v>0.8355244755244755</v>
+        <v>0.8945454545454545</v>
       </c>
       <c r="H18">
-        <v>0.72</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="I18">
         <v>25</v>
@@ -1573,19 +1573,19 @@
         <v>35</v>
       </c>
       <c r="D19">
-        <v>0.9970000000000001</v>
+        <v>0.992</v>
       </c>
       <c r="E19">
-        <v>0.624055944055944</v>
+        <v>0.6157369222918347</v>
       </c>
       <c r="F19">
-        <v>0.9047619047619048</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G19">
-        <v>0.8120279720279721</v>
+        <v>0.8830769230769231</v>
       </c>
       <c r="H19">
-        <v>0.68</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="I19">
         <v>25</v>
@@ -1605,16 +1605,16 @@
         <v>0.9970000000000001</v>
       </c>
       <c r="E20">
-        <v>0.4985616751700429</v>
+        <v>0.5052452149924106</v>
       </c>
       <c r="F20">
-        <v>0.7559523809523809</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="G20">
-        <v>0.8401398601398602</v>
+        <v>0.8436363636363636</v>
       </c>
       <c r="H20">
-        <v>0.5393258426966292</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="I20">
         <v>25</v>
@@ -1634,16 +1634,16 @@
         <v>0.9960000000000001</v>
       </c>
       <c r="E21">
-        <v>0.6091560015537308</v>
+        <v>0.6219333429121175</v>
       </c>
       <c r="F21">
-        <v>0.8809523809523809</v>
+        <v>0.8869047619047619</v>
       </c>
       <c r="G21">
-        <v>0.8475524475524476</v>
+        <v>0.8510489510489511</v>
       </c>
       <c r="H21">
-        <v>0.6666666666666666</v>
+        <v>0.6779661016949153</v>
       </c>
       <c r="I21">
         <v>25</v>
@@ -1663,16 +1663,16 @@
         <v>0.998</v>
       </c>
       <c r="E22">
-        <v>0.6119466404226498</v>
+        <v>0.6309310625539255</v>
       </c>
       <c r="F22">
-        <v>0.9047619047619048</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="G22">
-        <v>0.7955244755244755</v>
+        <v>0.799020979020979</v>
       </c>
       <c r="H22">
-        <v>0.6666666666666666</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="I22">
         <v>25</v>
@@ -1689,19 +1689,19 @@
         <v>39</v>
       </c>
       <c r="D23">
-        <v>0.7899999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="E23">
-        <v>0.5153215131545531</v>
+        <v>0.5674457596751872</v>
       </c>
       <c r="F23">
-        <v>0.8511904761904762</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="G23">
-        <v>0.7970629370629371</v>
+        <v>0.713006993006993</v>
       </c>
       <c r="H23">
-        <v>0.5901639344262295</v>
+        <v>0.5789473684210525</v>
       </c>
       <c r="I23">
         <v>25</v>
@@ -1721,16 +1721,16 @@
         <v>0.9869999999999999</v>
       </c>
       <c r="E24">
-        <v>0.5048516115297955</v>
+        <v>0.5334431480991202</v>
       </c>
       <c r="F24">
-        <v>0.8928571428571429</v>
+        <v>0.8988095238095238</v>
       </c>
       <c r="G24">
-        <v>0.6895104895104895</v>
+        <v>0.6930069930069931</v>
       </c>
       <c r="H24">
-        <v>0.5263157894736842</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="I24">
         <v>25</v>
@@ -1776,19 +1776,19 @@
         <v>42</v>
       </c>
       <c r="D26">
-        <v>0.9</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="E26">
-        <v>0.5729005155221881</v>
+        <v>0.600084757734566</v>
       </c>
       <c r="F26">
-        <v>0.9047619047619048</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="G26">
-        <v>0.7295104895104896</v>
+        <v>0.733006993006993</v>
       </c>
       <c r="H26">
-        <v>0.6</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="I26">
         <v>25</v>
@@ -1805,19 +1805,19 @@
         <v>43</v>
       </c>
       <c r="D27">
-        <v>0.8699999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="E27">
-        <v>0.6926340559659704</v>
+        <v>0.6726101845827644</v>
       </c>
       <c r="F27">
-        <v>0.9285714285714286</v>
+        <v>0.9226190476190477</v>
       </c>
       <c r="G27">
-        <v>0.76</v>
+        <v>0.806013986013986</v>
       </c>
       <c r="H27">
-        <v>0.6842105263157895</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="I27">
         <v>25</v>
@@ -1834,19 +1834,19 @@
         <v>44</v>
       </c>
       <c r="D28">
-        <v>0.9</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="E28">
-        <v>0.4315812608726451</v>
+        <v>0.4360839160839161</v>
       </c>
       <c r="F28">
-        <v>0.8690476190476191</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G28">
-        <v>0.6920279720279721</v>
+        <v>0.718041958041958</v>
       </c>
       <c r="H28">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="I28">
         <v>25</v>
@@ -1921,7 +1921,7 @@
         <v>47</v>
       </c>
       <c r="D31">
-        <v>0.9800000000000001</v>
+        <v>0.984</v>
       </c>
       <c r="E31">
         <v>0.4204580550188795</v>
@@ -1950,19 +1950,19 @@
         <v>48</v>
       </c>
       <c r="D32">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="E32">
-        <v>0.5309978814558951</v>
+        <v>0.5334431480991202</v>
       </c>
       <c r="F32">
         <v>0.8988095238095238</v>
       </c>
       <c r="G32">
-        <v>0.6765034965034965</v>
+        <v>0.6930069930069931</v>
       </c>
       <c r="H32">
-        <v>0.5142857142857143</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="I32">
         <v>25</v>
@@ -2069,16 +2069,16 @@
         <v>0.998</v>
       </c>
       <c r="E36">
-        <v>0.2835099826820956</v>
+        <v>0.2951048951048951</v>
       </c>
       <c r="F36">
-        <v>0.8154761904761905</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="G36">
-        <v>0.6440559440559441</v>
+        <v>0.6475524475524476</v>
       </c>
       <c r="H36">
-        <v>0.392156862745098</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="I36">
         <v>25</v>
@@ -2124,19 +2124,19 @@
         <v>54</v>
       </c>
       <c r="D38">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="E38">
-        <v>0.4488176139286078</v>
+        <v>0.4513104801618663</v>
       </c>
       <c r="F38">
-        <v>0.8809523809523809</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="G38">
-        <v>0.8430379746835444</v>
+        <v>0.8088607594936709</v>
       </c>
       <c r="H38">
-        <v>0.4444444444444444</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I38">
         <v>10</v>
@@ -2153,19 +2153,19 @@
         <v>55</v>
       </c>
       <c r="D39">
-        <v>0.9099999999999999</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="E39">
-        <v>0.6270243958181407</v>
+        <v>0.6250762197039963</v>
       </c>
       <c r="F39">
-        <v>0.9464285714285714</v>
+        <v>0.9345238095238095</v>
       </c>
       <c r="G39">
-        <v>0.8778481012658228</v>
+        <v>0.9183544303797468</v>
       </c>
       <c r="H39">
-        <v>0.64</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="I39">
         <v>10</v>
@@ -2185,16 +2185,16 @@
         <v>0.96</v>
       </c>
       <c r="E40">
-        <v>0.6663632505294478</v>
+        <v>0.689709745939723</v>
       </c>
       <c r="F40">
-        <v>0.9464285714285714</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="G40">
-        <v>0.9246835443037975</v>
+        <v>0.9278481012658228</v>
       </c>
       <c r="H40">
-        <v>0.6666666666666667</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="I40">
         <v>10</v>
@@ -2214,16 +2214,16 @@
         <v>0.95</v>
       </c>
       <c r="E41">
-        <v>0.473886029737074</v>
+        <v>0.4842127974011078</v>
       </c>
       <c r="F41">
-        <v>0.8690476190476191</v>
+        <v>0.875</v>
       </c>
       <c r="G41">
-        <v>0.8835443037974684</v>
+        <v>0.8867088607594937</v>
       </c>
       <c r="H41">
-        <v>0.4500000000000001</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="I41">
         <v>10</v>
@@ -2240,19 +2240,19 @@
         <v>58</v>
       </c>
       <c r="D42">
-        <v>0.9299999999999999</v>
+        <v>0.9399999999999998</v>
       </c>
       <c r="E42">
-        <v>0.4176434439122485</v>
+        <v>0.4488176139286078</v>
       </c>
       <c r="F42">
-        <v>0.8630952380952381</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="G42">
-        <v>0.8335443037974684</v>
+        <v>0.8430379746835444</v>
       </c>
       <c r="H42">
-        <v>0.4102564102564103</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I42">
         <v>10</v>
@@ -2272,16 +2272,16 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="E43">
-        <v>0.3389246329477138</v>
+        <v>0.3497920266488201</v>
       </c>
       <c r="F43">
-        <v>0.875</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="G43">
-        <v>0.7462025316455696</v>
+        <v>0.7493670886075949</v>
       </c>
       <c r="H43">
-        <v>0.3636363636363636</v>
+        <v>0.3749999999999999</v>
       </c>
       <c r="I43">
         <v>10</v>
@@ -2327,19 +2327,19 @@
         <v>61</v>
       </c>
       <c r="D45">
-        <v>0.9399999999999998</v>
+        <v>0.95</v>
       </c>
       <c r="E45">
-        <v>0.5735168761805528</v>
+        <v>0.6040061680418876</v>
       </c>
       <c r="F45">
-        <v>0.9166666666666666</v>
+        <v>0.9404761904761905</v>
       </c>
       <c r="G45">
-        <v>0.9088607594936708</v>
+        <v>0.8746835443037975</v>
       </c>
       <c r="H45">
-        <v>0.5625000000000001</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="I45">
         <v>10</v>
@@ -2356,7 +2356,7 @@
         <v>62</v>
       </c>
       <c r="D46">
-        <v>0.986</v>
+        <v>0.985</v>
       </c>
       <c r="E46">
         <v>0.6663632505294478</v>
@@ -2388,16 +2388,16 @@
         <v>0.986</v>
       </c>
       <c r="E47">
-        <v>0.424366976492731</v>
+        <v>0.4374015001491542</v>
       </c>
       <c r="F47">
-        <v>0.8928571428571429</v>
+        <v>0.8988095238095238</v>
       </c>
       <c r="G47">
-        <v>0.8025316455696203</v>
+        <v>0.8056962025316455</v>
       </c>
       <c r="H47">
-        <v>0.4375</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="I47">
         <v>10</v>
@@ -2414,19 +2414,19 @@
         <v>64</v>
       </c>
       <c r="D48">
-        <v>0.985</v>
+        <v>0.986</v>
       </c>
       <c r="E48">
-        <v>0.4995241654490495</v>
+        <v>0.5183025901440522</v>
       </c>
       <c r="F48">
-        <v>0.9226190476190477</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="G48">
-        <v>0.8183544303797468</v>
+        <v>0.8215189873417721</v>
       </c>
       <c r="H48">
-        <v>0.5185185185185185</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="I48">
         <v>10</v>
@@ -2446,16 +2446,16 @@
         <v>0.9960000000000001</v>
       </c>
       <c r="E49">
-        <v>0.4557613757381113</v>
+        <v>0.5359782899266791</v>
       </c>
       <c r="F49">
-        <v>0.9523809523809523</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="G49">
-        <v>0.6468354430379747</v>
+        <v>0.65</v>
       </c>
       <c r="H49">
-        <v>0.4285714285714285</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="I49">
         <v>10</v>
@@ -2472,19 +2472,19 @@
         <v>66</v>
       </c>
       <c r="D50">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="E50">
-        <v>0.5289950710094006</v>
+        <v>0.5635631069609029</v>
       </c>
       <c r="F50">
-        <v>0.9166666666666666</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="G50">
-        <v>0.8620253164556962</v>
+        <v>0.8683544303797468</v>
       </c>
       <c r="H50">
-        <v>0.5333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I50">
         <v>10</v>
@@ -2501,19 +2501,19 @@
         <v>67</v>
       </c>
       <c r="D51">
-        <v>0.9299999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="E51">
-        <v>0.4640179634970406</v>
+        <v>0.4379094320479998</v>
       </c>
       <c r="F51">
-        <v>0.8630952380952381</v>
+        <v>0.875</v>
       </c>
       <c r="G51">
-        <v>0.8803797468354431</v>
+        <v>0.839873417721519</v>
       </c>
       <c r="H51">
-        <v>0.4390243902439024</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="I51">
         <v>10</v>
@@ -2533,16 +2533,16 @@
         <v>0.992</v>
       </c>
       <c r="E52">
-        <v>0.4842127974011078</v>
+        <v>0.4950386764074505</v>
       </c>
       <c r="F52">
-        <v>0.875</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="G52">
-        <v>0.8867088607594937</v>
+        <v>0.8898734177215191</v>
       </c>
       <c r="H52">
-        <v>0.4615384615384615</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="I52">
         <v>10</v>
@@ -2559,19 +2559,19 @@
         <v>69</v>
       </c>
       <c r="D53">
-        <v>0.992</v>
+        <v>0.993</v>
       </c>
       <c r="E53">
-        <v>0.5584850635462327</v>
+        <v>0.5735168761805528</v>
       </c>
       <c r="F53">
-        <v>0.9107142857142857</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G53">
-        <v>0.9056962025316455</v>
+        <v>0.9088607594936708</v>
       </c>
       <c r="H53">
-        <v>0.5454545454545454</v>
+        <v>0.5625000000000001</v>
       </c>
       <c r="I53">
         <v>10</v>
@@ -2591,16 +2591,16 @@
         <v>0.998</v>
       </c>
       <c r="E54">
-        <v>0.5134713262620506</v>
+        <v>0.5289950710094006</v>
       </c>
       <c r="F54">
-        <v>0.9107142857142857</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G54">
-        <v>0.8588607594936709</v>
+        <v>0.8620253164556962</v>
       </c>
       <c r="H54">
-        <v>0.5161290322580645</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I54">
         <v>10</v>
@@ -2620,16 +2620,16 @@
         <v>0.9800000000000001</v>
       </c>
       <c r="E55">
-        <v>0.4603103663333988</v>
+        <v>0.4724476172602126</v>
       </c>
       <c r="F55">
-        <v>0.8869047619047619</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G55">
-        <v>0.8462025316455697</v>
+        <v>0.849367088607595</v>
       </c>
       <c r="H55">
-        <v>0.4571428571428571</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="I55">
         <v>10</v>
@@ -2646,19 +2646,19 @@
         <v>72</v>
       </c>
       <c r="D56">
-        <v>0.998</v>
+        <v>0.99</v>
       </c>
       <c r="E56">
-        <v>0.2567650093805503</v>
+        <v>0.2577972021546094</v>
       </c>
       <c r="F56">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G56">
-        <v>0.689873417721519</v>
+        <v>0.7544303797468355</v>
       </c>
       <c r="H56">
-        <v>0.2941176470588235</v>
+        <v>0.25</v>
       </c>
       <c r="I56">
         <v>10</v>
@@ -2678,16 +2678,16 @@
         <v>0.9960000000000001</v>
       </c>
       <c r="E57">
-        <v>0.2279022223126522</v>
+        <v>0.2182567076192632</v>
       </c>
       <c r="F57">
-        <v>0.875</v>
+        <v>0.8690476190476191</v>
       </c>
       <c r="G57">
-        <v>0.6525316455696203</v>
+        <v>0.649367088607595</v>
       </c>
       <c r="H57">
-        <v>0.2758620689655172</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="I57">
         <v>10</v>
@@ -2707,16 +2707,16 @@
         <v>0.992</v>
       </c>
       <c r="E58">
-        <v>0.3420896321955639</v>
+        <v>0.3314560596855226</v>
       </c>
       <c r="F58">
-        <v>0.7619047619047619</v>
+        <v>0.75</v>
       </c>
       <c r="G58">
-        <v>0.8265822784810126</v>
+        <v>0.820253164556962</v>
       </c>
       <c r="H58">
-        <v>0.310344827586207</v>
+        <v>0.3</v>
       </c>
       <c r="I58">
         <v>10</v>
@@ -2733,19 +2733,19 @@
         <v>75</v>
       </c>
       <c r="D59">
-        <v>0.85</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="E59">
-        <v>0.6164067338089441</v>
+        <v>0.6237200571303999</v>
       </c>
       <c r="F59">
         <v>0.8988095238095238</v>
       </c>
       <c r="G59">
-        <v>0.7751178367650706</v>
+        <v>0.7887620937732573</v>
       </c>
       <c r="H59">
-        <v>0.6666666666666667</v>
+        <v>0.679245283018868</v>
       </c>
       <c r="I59">
         <v>29</v>
@@ -2791,7 +2791,7 @@
         <v>77</v>
       </c>
       <c r="D61">
-        <v>0.9810000000000001</v>
+        <v>0.982</v>
       </c>
       <c r="E61">
         <v>0.8213109256433897</v>
@@ -2849,19 +2849,19 @@
         <v>79</v>
       </c>
       <c r="D63">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="E63">
-        <v>0.6056121075786924</v>
+        <v>0.5947905832437533</v>
       </c>
       <c r="F63">
-        <v>0.8928571428571429</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="G63">
-        <v>0.785164971471099</v>
+        <v>0.8052592408831556</v>
       </c>
       <c r="H63">
-        <v>0.6666666666666666</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="I63">
         <v>29</v>
@@ -2878,19 +2878,19 @@
         <v>80</v>
       </c>
       <c r="D64">
-        <v>0.8799999999999999</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="E64">
-        <v>0.8214541726175058</v>
+        <v>0.8071863980108708</v>
       </c>
       <c r="F64">
-        <v>0.9404761904761905</v>
+        <v>0.9345238095238095</v>
       </c>
       <c r="G64">
-        <v>0.9503845199702308</v>
+        <v>0.9467873976680725</v>
       </c>
       <c r="H64">
-        <v>0.8484848484848485</v>
+        <v>0.835820895522388</v>
       </c>
       <c r="I64">
         <v>29</v>
@@ -3026,16 +3026,16 @@
         <v>0.7899999999999999</v>
       </c>
       <c r="E69">
-        <v>0.5684020633234632</v>
+        <v>0.5541872439568981</v>
       </c>
       <c r="F69">
-        <v>0.875</v>
+        <v>0.8690476190476191</v>
       </c>
       <c r="G69">
-        <v>0.7880178615728107</v>
+        <v>0.7844207392706524</v>
       </c>
       <c r="H69">
-        <v>0.6440677966101694</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="I69">
         <v>29</v>
@@ -3081,19 +3081,19 @@
         <v>87</v>
       </c>
       <c r="D71">
-        <v>0.985</v>
+        <v>0.97</v>
       </c>
       <c r="E71">
-        <v>0.6917761545874708</v>
+        <v>0.6814960307245606</v>
       </c>
       <c r="F71">
-        <v>0.9107142857142857</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G71">
-        <v>0.8505333664103201</v>
+        <v>0.8806747705284048</v>
       </c>
       <c r="H71">
-        <v>0.7457627118644068</v>
+        <v>0.7352941176470588</v>
       </c>
       <c r="I71">
         <v>29</v>
@@ -3110,19 +3110,19 @@
         <v>88</v>
       </c>
       <c r="D72">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="E72">
-        <v>0.6691634383830813</v>
+        <v>0.6694251987813824</v>
       </c>
       <c r="F72">
-        <v>0.8869047619047619</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G72">
-        <v>0.8770776482262466</v>
+        <v>0.8670305135202183</v>
       </c>
       <c r="H72">
-        <v>0.7246376811594203</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="I72">
         <v>29</v>
@@ -3139,19 +3139,19 @@
         <v>89</v>
       </c>
       <c r="D73">
-        <v>0.9800000000000001</v>
+        <v>0.982</v>
       </c>
       <c r="E73">
-        <v>0.6095267604114657</v>
+        <v>0.5947905832437533</v>
       </c>
       <c r="F73">
-        <v>0.8869047619047619</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="G73">
-        <v>0.8088563631853138</v>
+        <v>0.8052592408831556</v>
       </c>
       <c r="H73">
-        <v>0.6779661016949153</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="I73">
         <v>29</v>
@@ -3168,19 +3168,19 @@
         <v>90</v>
       </c>
       <c r="D74">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="E74">
-        <v>0.7934132674417904</v>
+        <v>0.7801036926413289</v>
       </c>
       <c r="F74">
-        <v>0.9285714285714286</v>
+        <v>0.9226190476190477</v>
       </c>
       <c r="G74">
-        <v>0.9431902753659143</v>
+        <v>0.9395931530637559</v>
       </c>
       <c r="H74">
-        <v>0.8235294117647058</v>
+        <v>0.8115942028985508</v>
       </c>
       <c r="I74">
         <v>29</v>
@@ -3197,19 +3197,19 @@
         <v>91</v>
       </c>
       <c r="D75">
-        <v>0.8699999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="E75">
-        <v>0.6814960307245606</v>
+        <v>0.6715719259498459</v>
       </c>
       <c r="F75">
-        <v>0.8928571428571429</v>
+        <v>0.8988095238095238</v>
       </c>
       <c r="G75">
-        <v>0.8806747705284048</v>
+        <v>0.8569833788141901</v>
       </c>
       <c r="H75">
-        <v>0.7352941176470588</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="I75">
         <v>29</v>
@@ -3255,7 +3255,7 @@
         <v>93</v>
       </c>
       <c r="D77">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="E77">
         <v>0.5697176755222432</v>
@@ -3313,7 +3313,7 @@
         <v>95</v>
       </c>
       <c r="D79">
-        <v>0.8099999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="E79">
         <v>0.8888194417315589</v>
@@ -3371,7 +3371,7 @@
         <v>97</v>
       </c>
       <c r="D81">
-        <v>0.86</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="E81">
         <v>0.7649739768026003</v>
@@ -3432,16 +3432,16 @@
         <v>0.7799999999999999</v>
       </c>
       <c r="E83">
-        <v>0.1077537953187588</v>
+        <v>0.09934463376568618</v>
       </c>
       <c r="F83">
-        <v>0.4464285714285715</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G83">
-        <v>0.6120253164556962</v>
+        <v>0.6025316455696202</v>
       </c>
       <c r="H83">
-        <v>0.1467889908256881</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I83">
         <v>10</v>
@@ -3458,7 +3458,7 @@
         <v>100</v>
       </c>
       <c r="D84">
-        <v>0.986</v>
+        <v>0.9869999999999999</v>
       </c>
       <c r="E84">
         <v>0.4557613757381113</v>
@@ -3487,19 +3487,19 @@
         <v>101</v>
       </c>
       <c r="D85">
-        <v>0.9399999999999998</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="E85">
-        <v>0.5163349229692894</v>
+        <v>0.5183025901440522</v>
       </c>
       <c r="F85">
-        <v>0.9404761904761905</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="G85">
-        <v>0.781012658227848</v>
+        <v>0.8215189873417721</v>
       </c>
       <c r="H85">
-        <v>0.5454545454545454</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="I85">
         <v>10</v>
@@ -3516,7 +3516,7 @@
         <v>102</v>
       </c>
       <c r="D86">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="E86">
         <v>0.8888194417315589</v>
@@ -3545,7 +3545,7 @@
         <v>103</v>
       </c>
       <c r="D87">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="E87">
         <v>0.9070748646757787</v>
@@ -3574,7 +3574,7 @@
         <v>104</v>
       </c>
       <c r="D88">
-        <v>0.7</v>
+        <v>0.8299999999999998</v>
       </c>
       <c r="E88">
         <v>0.7706852121343264</v>
@@ -3603,19 +3603,19 @@
         <v>105</v>
       </c>
       <c r="D89">
-        <v>0.9869999999999999</v>
+        <v>0.985</v>
       </c>
       <c r="E89">
-        <v>0.7745366527258768</v>
+        <v>0.7433634259021153</v>
       </c>
       <c r="F89">
-        <v>0.9702380952380952</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="G89">
-        <v>0.9373417721518987</v>
+        <v>0.9341772151898735</v>
       </c>
       <c r="H89">
-        <v>0.7826086956521738</v>
+        <v>0.75</v>
       </c>
       <c r="I89">
         <v>10</v>
@@ -3635,16 +3635,16 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="E90">
-        <v>0.1800140641481638</v>
+        <v>0.1725430500157095</v>
       </c>
       <c r="F90">
-        <v>0.6666666666666666</v>
+        <v>0.6547619047619048</v>
       </c>
       <c r="G90">
-        <v>0.6822784810126582</v>
+        <v>0.6759493670886076</v>
       </c>
       <c r="H90">
-        <v>0.2</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="I90">
         <v>10</v>
@@ -3661,19 +3661,19 @@
         <v>107</v>
       </c>
       <c r="D91">
-        <v>0.97</v>
+        <v>0.992</v>
       </c>
       <c r="E91">
-        <v>0.2813570530461215</v>
+        <v>0.2981482937453964</v>
       </c>
       <c r="F91">
-        <v>0.7440476190476191</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="G91">
-        <v>0.770253164556962</v>
+        <v>0.6341772151898735</v>
       </c>
       <c r="H91">
-        <v>0.271186440677966</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I91">
         <v>10</v>
@@ -3690,19 +3690,19 @@
         <v>108</v>
       </c>
       <c r="D92">
-        <v>0.71</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="E92">
-        <v>0.5289950710094006</v>
+        <v>0.5387998577130757</v>
       </c>
       <c r="F92">
-        <v>0.9166666666666666</v>
+        <v>0.9345238095238095</v>
       </c>
       <c r="G92">
-        <v>0.8620253164556962</v>
+        <v>0.8246835443037974</v>
       </c>
       <c r="H92">
-        <v>0.5333333333333333</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I92">
         <v>10</v>
@@ -3719,19 +3719,19 @@
         <v>109</v>
       </c>
       <c r="D93">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="E93">
-        <v>0.2250175801852048</v>
+        <v>0.2006421269609984</v>
       </c>
       <c r="F93">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G93">
-        <v>0.6772151898734178</v>
+        <v>0.6430379746835443</v>
       </c>
       <c r="H93">
-        <v>0.2631578947368421</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="I93">
         <v>10</v>
@@ -3748,7 +3748,7 @@
         <v>110</v>
       </c>
       <c r="D94">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="E94">
         <v>0.7222398794279032</v>
@@ -3777,7 +3777,7 @@
         <v>111</v>
       </c>
       <c r="D95">
-        <v>0.77</v>
+        <v>0.7899999999999999</v>
       </c>
       <c r="E95">
         <v>0.6961771158887058</v>
@@ -3838,16 +3838,16 @@
         <v>0.96</v>
       </c>
       <c r="E97">
-        <v>0.3742082100754022</v>
+        <v>0.3821954894413872</v>
       </c>
       <c r="F97">
-        <v>0.8333333333333334</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="G97">
-        <v>0.8177215189873418</v>
+        <v>0.8208860759493671</v>
       </c>
       <c r="H97">
-        <v>0.3636363636363636</v>
+        <v>0.372093023255814</v>
       </c>
       <c r="I97">
         <v>10</v>
@@ -3893,7 +3893,7 @@
         <v>115</v>
       </c>
       <c r="D99">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="E99">
         <v>0.9070748646757787</v>
@@ -3922,7 +3922,7 @@
         <v>116</v>
       </c>
       <c r="D100">
-        <v>0.76</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="E100">
         <v>0.9070748646757787</v>
@@ -3980,19 +3980,19 @@
         <v>118</v>
       </c>
       <c r="D102">
-        <v>0.8699999999999999</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="E102">
-        <v>0.6525509825370939</v>
+        <v>0.6105121632733105</v>
       </c>
       <c r="F102">
-        <v>0.9642857142857143</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="G102">
-        <v>0.7936708860759494</v>
+        <v>0.790506329113924</v>
       </c>
       <c r="H102">
-        <v>0.6666666666666665</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="I102">
         <v>10</v>
@@ -4009,7 +4009,7 @@
         <v>119</v>
       </c>
       <c r="D103">
-        <v>0.8699999999999999</v>
+        <v>0.7899999999999999</v>
       </c>
       <c r="E103">
         <v>0.7029304177953677</v>
@@ -4038,7 +4038,7 @@
         <v>120</v>
       </c>
       <c r="D104">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="E104">
         <v>0.731775292128832</v>
@@ -4125,7 +4125,7 @@
         <v>123</v>
       </c>
       <c r="D107">
-        <v>0.992</v>
+        <v>0.991</v>
       </c>
       <c r="E107">
         <v>0.939858145324779</v>
@@ -4183,7 +4183,7 @@
         <v>125</v>
       </c>
       <c r="D109">
-        <v>0.99</v>
+        <v>0.9869999999999999</v>
       </c>
       <c r="E109">
         <v>0.60625</v>
@@ -4212,19 +4212,19 @@
         <v>126</v>
       </c>
       <c r="D110">
-        <v>0.9099999999999999</v>
+        <v>0.9399999999999998</v>
       </c>
       <c r="E110">
-        <v>0.8447700063546074</v>
+        <v>0.8888194417315589</v>
       </c>
       <c r="F110">
-        <v>0.9821428571428571</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="G110">
-        <v>0.990625</v>
+        <v>0.99375</v>
       </c>
       <c r="H110">
-        <v>0.8421052631578948</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I110">
         <v>8</v>
@@ -4299,7 +4299,7 @@
         <v>129</v>
       </c>
       <c r="D113">
-        <v>0.9949999999999999</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="E113">
         <v>0.939858145324779</v>
@@ -4331,16 +4331,16 @@
         <v>0.95</v>
       </c>
       <c r="E114">
-        <v>0.7706852121343264</v>
+        <v>0.815725937451695</v>
       </c>
       <c r="F114">
-        <v>0.9761904761904762</v>
+        <v>0.9821428571428571</v>
       </c>
       <c r="G114">
-        <v>0.928125</v>
+        <v>0.93125</v>
       </c>
       <c r="H114">
-        <v>0.7777777777777777</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I114">
         <v>8</v>
@@ -4357,19 +4357,19 @@
         <v>131</v>
       </c>
       <c r="D115">
-        <v>0.994</v>
+        <v>0.9949999999999999</v>
       </c>
       <c r="E115">
-        <v>0.567461521705527</v>
+        <v>0.6527533657682196</v>
       </c>
       <c r="F115">
-        <v>0.9583333333333334</v>
+        <v>0.9702380952380952</v>
       </c>
       <c r="G115">
-        <v>0.8</v>
+        <v>0.80625</v>
       </c>
       <c r="H115">
-        <v>0.5882352941176471</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I115">
         <v>8</v>
@@ -4386,19 +4386,19 @@
         <v>132</v>
       </c>
       <c r="D116">
-        <v>0.8099999999999999</v>
+        <v>0.7899999999999999</v>
       </c>
       <c r="E116">
-        <v>0.443329313832443</v>
+        <v>0.4162825233426288</v>
       </c>
       <c r="F116">
-        <v>0.9464285714285714</v>
+        <v>0.9404761904761905</v>
       </c>
       <c r="G116">
-        <v>0.734375</v>
+        <v>0.73125</v>
       </c>
       <c r="H116">
-        <v>0.4705882352941176</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="I116">
         <v>8</v>
@@ -4418,16 +4418,16 @@
         <v>0.7</v>
       </c>
       <c r="E117">
-        <v>0.5181036310903636</v>
+        <v>0.481059245480888</v>
       </c>
       <c r="F117">
-        <v>0.9345238095238095</v>
+        <v>0.9226190476190477</v>
       </c>
       <c r="G117">
-        <v>0.846875</v>
+        <v>0.840625</v>
       </c>
       <c r="H117">
-        <v>0.5217391304347827</v>
+        <v>0.48</v>
       </c>
       <c r="I117">
         <v>8</v>
@@ -4444,19 +4444,19 @@
         <v>134</v>
       </c>
       <c r="D118">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="E118">
-        <v>0.8447700063546074</v>
+        <v>0.86875</v>
       </c>
       <c r="F118">
-        <v>0.9821428571428571</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="G118">
-        <v>0.990625</v>
+        <v>0.934375</v>
       </c>
       <c r="H118">
-        <v>0.8421052631578948</v>
+        <v>0.875</v>
       </c>
       <c r="I118">
         <v>8</v>
@@ -4473,19 +4473,19 @@
         <v>135</v>
       </c>
       <c r="D119">
-        <v>0.97</v>
+        <v>0.992</v>
       </c>
       <c r="E119">
-        <v>0.5760366149978505</v>
+        <v>0.567461521705527</v>
       </c>
       <c r="F119">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="G119">
-        <v>0.95625</v>
+        <v>0.8</v>
       </c>
       <c r="H119">
-        <v>0.5333333333333333</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="I119">
         <v>8</v>
@@ -4502,19 +4502,19 @@
         <v>136</v>
       </c>
       <c r="D120">
-        <v>0.982</v>
+        <v>0.96</v>
       </c>
       <c r="E120">
-        <v>0.567461521705527</v>
+        <v>0.6261830907633124</v>
       </c>
       <c r="F120">
-        <v>0.9583333333333334</v>
+        <v>0.9345238095238095</v>
       </c>
       <c r="G120">
-        <v>0.8</v>
+        <v>0.965625</v>
       </c>
       <c r="H120">
-        <v>0.5882352941176471</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="I120">
         <v>8</v>
@@ -4531,19 +4531,19 @@
         <v>137</v>
       </c>
       <c r="D121">
-        <v>0.986</v>
+        <v>0.994</v>
       </c>
       <c r="E121">
-        <v>0.3536761917845697</v>
+        <v>0.5128776445321725</v>
       </c>
       <c r="F121">
-        <v>0.9226190476190477</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="G121">
-        <v>0.721875</v>
+        <v>0.740625</v>
       </c>
       <c r="H121">
-        <v>0.380952380952381</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I121">
         <v>8</v>
@@ -4618,19 +4618,19 @@
         <v>140</v>
       </c>
       <c r="D124">
-        <v>0.7899999999999999</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="E124">
-        <v>0.7706852121343264</v>
+        <v>0.815725937451695</v>
       </c>
       <c r="F124">
-        <v>0.9761904761904762</v>
+        <v>0.9821428571428571</v>
       </c>
       <c r="G124">
-        <v>0.928125</v>
+        <v>0.93125</v>
       </c>
       <c r="H124">
-        <v>0.7777777777777777</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I124">
         <v>8</v>
@@ -4650,16 +4650,16 @@
         <v>0.8299999999999998</v>
       </c>
       <c r="E125">
-        <v>0.2431404635926466</v>
+        <v>0.2387900123390265</v>
       </c>
       <c r="F125">
-        <v>0.4345238095238095</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G125">
-        <v>0.6464285714285715</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="H125">
-        <v>0.3624161073825503</v>
+        <v>0.36</v>
       </c>
       <c r="I125">
         <v>28</v>
@@ -4679,16 +4679,16 @@
         <v>0.9399999999999998</v>
       </c>
       <c r="E126">
-        <v>0.3861573099738718</v>
+        <v>0.3930217093770687</v>
       </c>
       <c r="F126">
-        <v>0.7261904761904762</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="G126">
-        <v>0.75</v>
+        <v>0.7535714285714286</v>
       </c>
       <c r="H126">
-        <v>0.4888888888888889</v>
+        <v>0.49438202247191</v>
       </c>
       <c r="I126">
         <v>28</v>
@@ -4708,16 +4708,16 @@
         <v>0.9800000000000001</v>
       </c>
       <c r="E127">
-        <v>0.3270349700838643</v>
+        <v>0.33340302980596</v>
       </c>
       <c r="F127">
-        <v>0.6904761904761905</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="G127">
-        <v>0.7142857142857143</v>
+        <v>0.7178571428571429</v>
       </c>
       <c r="H127">
-        <v>0.4468085106382979</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="I127">
         <v>28</v>
@@ -4763,19 +4763,19 @@
         <v>145</v>
       </c>
       <c r="D129">
-        <v>0.9800000000000001</v>
+        <v>0.984</v>
       </c>
       <c r="E129">
-        <v>0.08227533512074423</v>
+        <v>0.06201736729460423</v>
       </c>
       <c r="F129">
-        <v>0.7559523809523809</v>
+        <v>0.7976190476190477</v>
       </c>
       <c r="G129">
-        <v>0.5392857142857143</v>
+        <v>0.5214285714285715</v>
       </c>
       <c r="H129">
-        <v>0.2264150943396226</v>
+        <v>0.15</v>
       </c>
       <c r="I129">
         <v>28</v>
@@ -4792,19 +4792,19 @@
         <v>146</v>
       </c>
       <c r="D130">
-        <v>0.984</v>
+        <v>0.986</v>
       </c>
       <c r="E130">
-        <v>0.114748076903698</v>
+        <v>0.126958343769252</v>
       </c>
       <c r="F130">
-        <v>0.7916666666666666</v>
+        <v>0.7976190476190477</v>
       </c>
       <c r="G130">
-        <v>0.5464285714285714</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="H130">
-        <v>0.2222222222222222</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="I130">
         <v>28</v>
@@ -4821,19 +4821,19 @@
         <v>147</v>
       </c>
       <c r="D131">
-        <v>0.85</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="E131">
-        <v>0.283155374116847</v>
+        <v>0.2953618874475801</v>
       </c>
       <c r="F131">
-        <v>0.5773809523809523</v>
+        <v>0.5654761904761905</v>
       </c>
       <c r="G131">
-        <v>0.6892857142857143</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="H131">
-        <v>0.4033613445378151</v>
+        <v>0.4065040650406504</v>
       </c>
       <c r="I131">
         <v>28</v>
@@ -4853,16 +4853,16 @@
         <v>0.97</v>
       </c>
       <c r="E132">
-        <v>0.3998388504601219</v>
+        <v>0.4107852391827941</v>
       </c>
       <c r="F132">
-        <v>0.8154761904761905</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="G132">
-        <v>0.7178571428571429</v>
+        <v>0.7214285714285714</v>
       </c>
       <c r="H132">
-        <v>0.5079365079365079</v>
+        <v>0.5161290322580646</v>
       </c>
       <c r="I132">
         <v>28</v>
@@ -4882,16 +4882,16 @@
         <v>0.9879999999999999</v>
       </c>
       <c r="E133">
-        <v>0.4220617840609607</v>
+        <v>0.4163331998932265</v>
       </c>
       <c r="F133">
-        <v>0.6845238095238095</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="G133">
-        <v>0.7821428571428571</v>
+        <v>0.7785714285714286</v>
       </c>
       <c r="H133">
-        <v>0.4952380952380952</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="I133">
         <v>28</v>
@@ -4911,16 +4911,16 @@
         <v>0.9890000000000001</v>
       </c>
       <c r="E134">
-        <v>0.09551600493561059</v>
+        <v>0.1008143385628047</v>
       </c>
       <c r="F134">
-        <v>0.3809523809523809</v>
+        <v>0.3869047619047619</v>
       </c>
       <c r="G134">
-        <v>0.5571428571428572</v>
+        <v>0.5607142857142857</v>
       </c>
       <c r="H134">
-        <v>0.3066666666666666</v>
+        <v>0.3087248322147651</v>
       </c>
       <c r="I134">
         <v>28</v>
@@ -4940,16 +4940,16 @@
         <v>0.9879999999999999</v>
       </c>
       <c r="E135">
-        <v>0.1059569244984399</v>
+        <v>0.118068861456013</v>
       </c>
       <c r="F135">
-        <v>0.6369047619047619</v>
+        <v>0.6488095238095238</v>
       </c>
       <c r="G135">
-        <v>0.5678571428571428</v>
+        <v>0.575</v>
       </c>
       <c r="H135">
-        <v>0.2988505747126437</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="I135">
         <v>28</v>
@@ -4969,16 +4969,16 @@
         <v>0.96</v>
       </c>
       <c r="E136">
-        <v>0.1612287038967076</v>
+        <v>0.1563150317156718</v>
       </c>
       <c r="F136">
-        <v>0.4285714285714285</v>
+        <v>0.4226190476190476</v>
       </c>
       <c r="G136">
-        <v>0.6</v>
+        <v>0.5964285714285714</v>
       </c>
       <c r="H136">
-        <v>0.3333333333333333</v>
+        <v>0.3310344827586207</v>
       </c>
       <c r="I136">
         <v>28</v>
@@ -4995,19 +4995,19 @@
         <v>153</v>
       </c>
       <c r="D137">
-        <v>0.85</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="E137">
-        <v>0.1936007731655916</v>
+        <v>0.2060830071851814</v>
       </c>
       <c r="F137">
-        <v>0.7916666666666666</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="G137">
-        <v>0.5892857142857143</v>
+        <v>0.6</v>
       </c>
       <c r="H137">
-        <v>0.3137254901960784</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I137">
         <v>28</v>
@@ -5027,16 +5027,16 @@
         <v>0.984</v>
       </c>
       <c r="E138">
-        <v>0.3181980515339464</v>
+        <v>0.3261640365267211</v>
       </c>
       <c r="F138">
-        <v>0.75</v>
+        <v>0.7559523809523809</v>
       </c>
       <c r="G138">
-        <v>0.6928571428571428</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="H138">
-        <v>0.4473684210526316</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="I138">
         <v>28</v>
@@ -5053,19 +5053,19 @@
         <v>155</v>
       </c>
       <c r="D139">
-        <v>0.9949999999999999</v>
+        <v>0.994</v>
       </c>
       <c r="E139">
-        <v>0.1612287038967076</v>
+        <v>0.1797294341041215</v>
       </c>
       <c r="F139">
-        <v>0.4285714285714285</v>
+        <v>0.3869047619047619</v>
       </c>
       <c r="G139">
-        <v>0.6</v>
+        <v>0.6035714285714286</v>
       </c>
       <c r="H139">
-        <v>0.3333333333333333</v>
+        <v>0.3354838709677419</v>
       </c>
       <c r="I139">
         <v>28</v>
@@ -5082,19 +5082,19 @@
         <v>156</v>
       </c>
       <c r="D140">
-        <v>0.9970000000000001</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="E140">
-        <v>0.1251086484342449</v>
+        <v>0.134701152992058</v>
       </c>
       <c r="F140">
-        <v>0.75</v>
+        <v>0.6845238095238095</v>
       </c>
       <c r="G140">
-        <v>0.5642857142857143</v>
+        <v>0.5821428571428572</v>
       </c>
       <c r="H140">
-        <v>0.2758620689655172</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="I140">
         <v>28</v>
@@ -5114,16 +5114,16 @@
         <v>0.994</v>
       </c>
       <c r="E141">
-        <v>0.169434326622701</v>
+        <v>0.1875621219873091</v>
       </c>
       <c r="F141">
-        <v>0.6369047619047619</v>
+        <v>0.6547619047619048</v>
       </c>
       <c r="G141">
-        <v>0.6107142857142858</v>
+        <v>0.6214285714285714</v>
       </c>
       <c r="H141">
-        <v>0.3440860215053764</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="I141">
         <v>28</v>
@@ -5140,19 +5140,19 @@
         <v>158</v>
       </c>
       <c r="D142">
-        <v>0.986</v>
+        <v>0.9879999999999999</v>
       </c>
       <c r="E142">
-        <v>0.3135398061352784</v>
+        <v>0.3181980515339464</v>
       </c>
       <c r="F142">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="G142">
-        <v>0.7</v>
+        <v>0.6928571428571428</v>
       </c>
       <c r="H142">
-        <v>0.441860465116279</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="I142">
         <v>28</v>
@@ -5172,16 +5172,16 @@
         <v>0.994</v>
       </c>
       <c r="E143">
-        <v>0.3036600909407433</v>
+        <v>0.2882306768491568</v>
       </c>
       <c r="F143">
-        <v>0.6011904761904762</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G143">
-        <v>0.7035714285714285</v>
+        <v>0.6928571428571428</v>
       </c>
       <c r="H143">
-        <v>0.4173913043478261</v>
+        <v>0.4067796610169491</v>
       </c>
       <c r="I143">
         <v>28</v>
@@ -5201,16 +5201,16 @@
         <v>0.9879999999999999</v>
       </c>
       <c r="E144">
-        <v>0.3134187175600826</v>
+        <v>0.3179335319987981</v>
       </c>
       <c r="F144">
-        <v>0.5297619047619048</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="G144">
-        <v>0.7035714285714285</v>
+        <v>0.7071428571428572</v>
       </c>
       <c r="H144">
-        <v>0.4060150375939849</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="I144">
         <v>28</v>
@@ -5227,19 +5227,19 @@
         <v>161</v>
       </c>
       <c r="D145">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
       <c r="E145">
-        <v>0.2532782018627764</v>
+        <v>0.2409657986707497</v>
       </c>
       <c r="F145">
-        <v>0.5416666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="G145">
-        <v>0.6678571428571428</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="H145">
-        <v>0.384</v>
+        <v>0.3883495145631067</v>
       </c>
       <c r="I145">
         <v>28</v>
@@ -5375,16 +5375,16 @@
         <v>0.983</v>
       </c>
       <c r="E150">
-        <v>0.6924702985084654</v>
+        <v>0.6798834181250946</v>
       </c>
       <c r="F150">
-        <v>0.9047619047619048</v>
+        <v>0.8988095238095238</v>
       </c>
       <c r="G150">
-        <v>0.9251700680272108</v>
+        <v>0.9217687074829932</v>
       </c>
       <c r="H150">
-        <v>0.7142857142857142</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="I150">
         <v>21</v>
@@ -5433,16 +5433,16 @@
         <v>0.99</v>
       </c>
       <c r="E152">
-        <v>0.6875238727711585</v>
+        <v>0.6738668420119716</v>
       </c>
       <c r="F152">
-        <v>0.9107142857142857</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="G152">
-        <v>0.9081632653061225</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="H152">
-        <v>0.7169811320754718</v>
+        <v>0.7037037037037038</v>
       </c>
       <c r="I152">
         <v>21</v>
@@ -5546,19 +5546,19 @@
         <v>172</v>
       </c>
       <c r="D156">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="E156">
-        <v>0.6677587408473751</v>
+        <v>0.6798834181250946</v>
       </c>
       <c r="F156">
-        <v>0.8928571428571429</v>
+        <v>0.8988095238095238</v>
       </c>
       <c r="G156">
-        <v>0.9183673469387754</v>
+        <v>0.9217687074829932</v>
       </c>
       <c r="H156">
-        <v>0.6896551724137931</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="I156">
         <v>21</v>
@@ -5578,16 +5578,16 @@
         <v>0.9949999999999999</v>
       </c>
       <c r="E157">
-        <v>0.6846087117020615</v>
+        <v>0.6696620080077292</v>
       </c>
       <c r="F157">
-        <v>0.9166666666666666</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="G157">
-        <v>0.891156462585034</v>
+        <v>0.8877551020408163</v>
       </c>
       <c r="H157">
-        <v>0.7200000000000001</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="I157">
         <v>21</v>
@@ -5633,19 +5633,19 @@
         <v>175</v>
       </c>
       <c r="D159">
-        <v>0.992</v>
+        <v>0.994</v>
       </c>
       <c r="E159">
-        <v>0.6738668420119716</v>
+        <v>0.6696620080077292</v>
       </c>
       <c r="F159">
-        <v>0.9047619047619048</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="G159">
-        <v>0.9047619047619048</v>
+        <v>0.8877551020408163</v>
       </c>
       <c r="H159">
-        <v>0.7037037037037038</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="I159">
         <v>21</v>
@@ -5662,19 +5662,19 @@
         <v>176</v>
       </c>
       <c r="D160">
-        <v>0.8299999999999998</v>
+        <v>0.86</v>
       </c>
       <c r="E160">
-        <v>0.6064496310619684</v>
+        <v>0.6248809410409238</v>
       </c>
       <c r="F160">
-        <v>0.8452380952380952</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G160">
-        <v>0.9115646258503401</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="H160">
-        <v>0.6176470588235294</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="I160">
         <v>21</v>
@@ -5691,19 +5691,19 @@
         <v>177</v>
       </c>
       <c r="D161">
-        <v>0.95</v>
+        <v>0.9399999999999998</v>
       </c>
       <c r="E161">
-        <v>0.5842382782089939</v>
+        <v>0.5663537876859704</v>
       </c>
       <c r="F161">
-        <v>0.8452380952380952</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G161">
-        <v>0.891156462585034</v>
+        <v>0.8843537414965986</v>
       </c>
       <c r="H161">
-        <v>0.6060606060606061</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="I161">
         <v>21</v>
@@ -5749,19 +5749,19 @@
         <v>179</v>
       </c>
       <c r="D163">
-        <v>0.9800000000000001</v>
+        <v>0.994</v>
       </c>
       <c r="E163">
-        <v>0.6345056363795381</v>
+        <v>0.6226681828843799</v>
       </c>
       <c r="F163">
-        <v>0.8630952380952381</v>
+        <v>0.8988095238095238</v>
       </c>
       <c r="G163">
-        <v>0.9217687074829932</v>
+        <v>0.8605442176870748</v>
       </c>
       <c r="H163">
-        <v>0.6461538461538462</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I163">
         <v>21</v>
@@ -5778,19 +5778,19 @@
         <v>180</v>
       </c>
       <c r="D164">
-        <v>0.9949999999999999</v>
+        <v>0.992</v>
       </c>
       <c r="E164">
-        <v>0.623310083311468</v>
+        <v>0.6155339044907597</v>
       </c>
       <c r="F164">
-        <v>0.8690476190476191</v>
+        <v>0.8511904761904762</v>
       </c>
       <c r="G164">
-        <v>0.9047619047619047</v>
+        <v>0.9149659863945578</v>
       </c>
       <c r="H164">
-        <v>0.6451612903225806</v>
+        <v>0.626865671641791</v>
       </c>
       <c r="I164">
         <v>21</v>
@@ -5807,19 +5807,19 @@
         <v>181</v>
       </c>
       <c r="D165">
-        <v>0.992</v>
+        <v>0.994</v>
       </c>
       <c r="E165">
-        <v>0.6248809410409238</v>
+        <v>0.6345056363795381</v>
       </c>
       <c r="F165">
-        <v>0.8571428571428571</v>
+        <v>0.8630952380952381</v>
       </c>
       <c r="G165">
-        <v>0.9183673469387755</v>
+        <v>0.9217687074829932</v>
       </c>
       <c r="H165">
-        <v>0.6363636363636364</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="I165">
         <v>21</v>
@@ -5836,19 +5836,19 @@
         <v>182</v>
       </c>
       <c r="D166">
-        <v>0.991</v>
+        <v>0.9890000000000001</v>
       </c>
       <c r="E166">
-        <v>0.5412746144356352</v>
+        <v>0.549169647365276</v>
       </c>
       <c r="F166">
-        <v>0.8154761904761905</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="G166">
-        <v>0.8741496598639455</v>
+        <v>0.8877551020408163</v>
       </c>
       <c r="H166">
-        <v>0.5633802816901408</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I166">
         <v>21</v>
@@ -5865,19 +5865,19 @@
         <v>183</v>
       </c>
       <c r="D167">
-        <v>0.9800000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="E167">
-        <v>0.6481521994039237</v>
+        <v>0.6447764869024765</v>
       </c>
       <c r="F167">
-        <v>0.8928571428571429</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="G167">
-        <v>0.8979591836734694</v>
+        <v>0.91156462585034</v>
       </c>
       <c r="H167">
-        <v>0.6785714285714285</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I167">
         <v>21</v>
@@ -5923,19 +5923,19 @@
         <v>185</v>
       </c>
       <c r="D169">
-        <v>0.991</v>
+        <v>0.9949999999999999</v>
       </c>
       <c r="E169">
-        <v>0.6031809368049664</v>
+        <v>0.6021466365287591</v>
       </c>
       <c r="F169">
-        <v>0.8571428571428571</v>
+        <v>0.8690476190476191</v>
       </c>
       <c r="G169">
-        <v>0.8979591836734694</v>
+        <v>0.8843537414965986</v>
       </c>
       <c r="H169">
-        <v>0.625</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="I169">
         <v>21</v>
@@ -5952,19 +5952,19 @@
         <v>186</v>
       </c>
       <c r="D170">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="E170">
-        <v>0.4794515138706144</v>
+        <v>0.4742570854076067</v>
       </c>
       <c r="F170">
-        <v>0.8214285714285714</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G170">
-        <v>0.8163265306122449</v>
+        <v>0.8027210884353742</v>
       </c>
       <c r="H170">
-        <v>0.53125</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I170">
         <v>21</v>
@@ -6097,7 +6097,7 @@
         <v>191</v>
       </c>
       <c r="D175">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="E175">
         <v>0.7489830503797116</v>
@@ -6242,19 +6242,19 @@
         <v>196</v>
       </c>
       <c r="D180">
-        <v>0.95</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="E180">
-        <v>0.8633970960424556</v>
+        <v>0.6564254024206326</v>
       </c>
       <c r="F180">
-        <v>0.9940476190476191</v>
+        <v>0.9702380952380952</v>
       </c>
       <c r="G180">
-        <v>0.875</v>
+        <v>0.9847560975609756</v>
       </c>
       <c r="H180">
-        <v>0.8571428571428571</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="I180">
         <v>4</v>
@@ -6474,7 +6474,7 @@
         <v>204</v>
       </c>
       <c r="D188">
-        <v>0.9299999999999999</v>
+        <v>0.9399999999999998</v>
       </c>
       <c r="E188">
         <v>0.9325048082403138</v>
@@ -6561,7 +6561,7 @@
         <v>207</v>
       </c>
       <c r="D191">
-        <v>0.95</v>
+        <v>0.9399999999999998</v>
       </c>
       <c r="E191">
         <v>0.815725937451695</v>
@@ -6590,19 +6590,19 @@
         <v>208</v>
       </c>
       <c r="D192">
-        <v>0.9810000000000001</v>
+        <v>0.982</v>
       </c>
       <c r="E192">
-        <v>0.7416198487095663</v>
+        <v>0.7721099961494128</v>
       </c>
       <c r="F192">
-        <v>0.9642857142857143</v>
+        <v>0.9702380952380952</v>
       </c>
       <c r="G192">
-        <v>0.98125</v>
+        <v>0.984375</v>
       </c>
       <c r="H192">
-        <v>0.7272727272727273</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="I192">
         <v>8</v>
@@ -6735,7 +6735,7 @@
         <v>213</v>
       </c>
       <c r="D197">
-        <v>0.991</v>
+        <v>0.993</v>
       </c>
       <c r="E197">
         <v>0.7706852121343264</v>
@@ -6764,7 +6764,7 @@
         <v>214</v>
       </c>
       <c r="D198">
-        <v>0.8699999999999999</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="E198">
         <v>0.8606629658238705</v>
@@ -6822,19 +6822,19 @@
         <v>216</v>
       </c>
       <c r="D200">
-        <v>0.9960000000000001</v>
+        <v>0.999</v>
       </c>
       <c r="E200">
-        <v>0.731775292128832</v>
+        <v>0.8606629658238705</v>
       </c>
       <c r="F200">
-        <v>0.9702380952380952</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="G200">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="H200">
-        <v>0.7368421052631579</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I200">
         <v>8</v>
@@ -6851,19 +6851,19 @@
         <v>217</v>
       </c>
       <c r="D201">
-        <v>0.994</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="E201">
-        <v>0.815725937451695</v>
+        <v>0.86875</v>
       </c>
       <c r="F201">
-        <v>0.9821428571428571</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="G201">
-        <v>0.93125</v>
+        <v>0.934375</v>
       </c>
       <c r="H201">
-        <v>0.823529411764706</v>
+        <v>0.875</v>
       </c>
       <c r="I201">
         <v>8</v>
@@ -6909,19 +6909,19 @@
         <v>219</v>
       </c>
       <c r="D203">
-        <v>0.991</v>
+        <v>0.99</v>
       </c>
       <c r="E203">
-        <v>0.403546164123694</v>
+        <v>0.3743883901333837</v>
       </c>
       <c r="F203">
-        <v>0.9166666666666666</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="G203">
-        <v>0.778125</v>
+        <v>0.771875</v>
       </c>
       <c r="H203">
-        <v>0.4166666666666667</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="I203">
         <v>8</v>
@@ -6938,19 +6938,19 @@
         <v>220</v>
       </c>
       <c r="D204">
-        <v>0.993</v>
+        <v>0.994</v>
       </c>
       <c r="E204">
-        <v>0.86875</v>
+        <v>0.9325048082403138</v>
       </c>
       <c r="F204">
-        <v>0.9880952380952381</v>
+        <v>0.9940476190476191</v>
       </c>
       <c r="G204">
-        <v>0.934375</v>
+        <v>0.9375</v>
       </c>
       <c r="H204">
-        <v>0.875</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="I204">
         <v>8</v>
